--- a/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
+++ b/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
@@ -885,7 +885,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
+++ b/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
@@ -885,7 +885,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="C29" s="43" t="n"/>
       <c r="D29" s="44" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="17">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C30" s="41" t="n"/>
       <c r="D30" s="44" t="n">
-        <v>162.5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" s="17">
@@ -1054,15 +1054,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
+++ b/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
@@ -885,7 +885,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
+++ b/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
@@ -885,7 +885,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1054,15 +1054,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
+++ b/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
@@ -885,7 +885,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1054,15 +1054,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
+++ b/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
@@ -885,7 +885,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1054,15 +1054,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
+++ b/server/LISTAS/ma/CINTA PERSIANA DISMAY.xlsx
@@ -885,7 +885,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="C29" s="43" t="n"/>
       <c r="D29" s="44" t="n">
-        <v>150</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="17">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C30" s="41" t="n"/>
       <c r="D30" s="44" t="n">
-        <v>162.5</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" s="17">
@@ -1054,15 +1054,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
